--- a/03_data/shopping_centers_complete.xlsx
+++ b/03_data/shopping_centers_complete.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moxballo/Documents/GitHub/GeoSpatial_FinalProject/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moxballo/Documents/GitHub/ds4upse-2526-s1/03_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6123FA3D-AEED-0440-93F9-12D350B81663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9173E11E-B318-AE42-9F79-6424A82CA94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="major" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$159</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -527,6 +528,21 @@
   </si>
   <si>
     <t>W Mall</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>Ayala</t>
+  </si>
+  <si>
+    <t>Robinsons</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -891,10 +907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -923,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -943,7 +960,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -963,7 +980,7 @@
         <v>4927</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -983,7 +1000,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -1003,7 +1020,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -1023,7 +1040,7 @@
         <v>8126</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1043,7 +1060,7 @@
         <v>5778</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -1063,7 +1080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -1083,7 +1100,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -1103,7 +1120,7 @@
         <v>4834</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -1143,7 +1160,7 @@
         <v>11809</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -1163,7 +1180,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -1183,7 +1200,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1203,7 +1220,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1223,7 +1240,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1243,7 +1260,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1303,7 +1320,7 @@
         <v>14551</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>143</v>
       </c>
@@ -1323,7 +1340,7 @@
         <v>6970</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -1363,7 +1380,7 @@
         <v>11791</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1403,7 +1420,7 @@
         <v>46495</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -1423,7 +1440,7 @@
         <v>5269</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>133</v>
       </c>
@@ -1483,7 +1500,7 @@
         <v>11305</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -1523,7 +1540,7 @@
         <v>17951</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -1543,7 +1560,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>90</v>
       </c>
@@ -1563,7 +1580,7 @@
         <v>5764</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1603,7 +1620,7 @@
         <v>15473</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -1623,7 +1640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1643,7 +1660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -1663,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -1683,7 +1700,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>89</v>
       </c>
@@ -1703,7 +1720,7 @@
         <v>8029</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -1723,7 +1740,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -1743,7 +1760,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -1763,7 +1780,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -1783,7 +1800,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1803,7 +1820,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -1823,7 +1840,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -1843,7 +1860,7 @@
         <v>9181</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1863,7 +1880,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>87</v>
       </c>
@@ -1883,7 +1900,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -1923,7 +1940,7 @@
         <v>14157</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -1943,7 +1960,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1963,7 +1980,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -1983,7 +2000,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2003,7 +2020,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -2023,7 +2040,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -2043,7 +2060,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>147</v>
       </c>
@@ -2063,7 +2080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2103,7 +2120,7 @@
         <v>5559</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2143,7 +2160,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -2163,7 +2180,7 @@
         <v>5865</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -2183,7 +2200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -2243,7 +2260,7 @@
         <v>5259</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -2263,7 +2280,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -2283,7 +2300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -2323,7 +2340,7 @@
         <v>19392</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>124</v>
       </c>
@@ -2343,7 +2360,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -2363,7 +2380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -2403,7 +2420,7 @@
         <v>10408</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>138</v>
       </c>
@@ -2423,7 +2440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -2443,7 +2460,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -2463,7 +2480,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -2483,7 +2500,7 @@
         <v>9379</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -2503,7 +2520,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2523,7 +2540,7 @@
         <v>8223</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>122</v>
       </c>
@@ -2543,7 +2560,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -2563,7 +2580,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>130</v>
       </c>
@@ -2583,7 +2600,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -2603,7 +2620,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -2623,7 +2640,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -2643,7 +2660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -2663,7 +2680,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -2683,7 +2700,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -2723,7 +2740,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -2763,7 +2780,7 @@
         <v>7792</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -2783,7 +2800,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -2803,7 +2820,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -2823,7 +2840,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>57</v>
       </c>
@@ -2843,7 +2860,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>134</v>
       </c>
@@ -2863,7 +2880,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -2883,7 +2900,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -2903,7 +2920,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>59</v>
       </c>
@@ -2923,7 +2940,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>166</v>
       </c>
@@ -2943,7 +2960,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>154</v>
       </c>
@@ -2963,7 +2980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -2983,7 +3000,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>66</v>
       </c>
@@ -3003,7 +3020,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>156</v>
       </c>
@@ -3023,7 +3040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -3043,7 +3060,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>60</v>
       </c>
@@ -3063,7 +3080,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>153</v>
       </c>
@@ -3083,7 +3100,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>65</v>
       </c>
@@ -3103,7 +3120,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -3123,7 +3140,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -3143,7 +3160,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -3163,7 +3180,7 @@
         <v>7215</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3183,7 +3200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>158</v>
       </c>
@@ -3203,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>137</v>
       </c>
@@ -3223,7 +3240,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3263,7 +3280,7 @@
         <v>6403</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -3283,7 +3300,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -3303,7 +3320,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>83</v>
       </c>
@@ -3323,7 +3340,7 @@
         <v>6116</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>44</v>
       </c>
@@ -3343,7 +3360,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>79</v>
       </c>
@@ -3363,7 +3380,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -3383,7 +3400,7 @@
         <v>4522</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>135</v>
       </c>
@@ -3403,7 +3420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -3443,7 +3460,7 @@
         <v>29723</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>33</v>
       </c>
@@ -3463,7 +3480,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>80</v>
       </c>
@@ -3483,7 +3500,7 @@
         <v>9095</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>98</v>
       </c>
@@ -3503,7 +3520,7 @@
         <v>4564</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>160</v>
       </c>
@@ -3523,7 +3540,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>159</v>
       </c>
@@ -3543,7 +3560,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>125</v>
       </c>
@@ -3583,7 +3600,7 @@
         <v>56994</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>162</v>
       </c>
@@ -3603,7 +3620,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>123</v>
       </c>
@@ -3623,7 +3640,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>126</v>
       </c>
@@ -3643,7 +3660,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>50</v>
       </c>
@@ -3663,7 +3680,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3683,7 +3700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3703,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>70</v>
       </c>
@@ -3723,7 +3740,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>129</v>
       </c>
@@ -3743,7 +3760,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -3763,7 +3780,7 @@
         <v>15701</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>101</v>
       </c>
@@ -3783,7 +3800,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>86</v>
       </c>
@@ -3803,7 +3820,7 @@
         <v>4616</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -3823,7 +3840,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -3843,7 +3860,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -3863,7 +3880,7 @@
         <v>8026</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>94</v>
       </c>
@@ -3883,7 +3900,7 @@
         <v>7974</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>165</v>
       </c>
@@ -3903,7 +3920,7 @@
         <v>7974</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3923,7 +3940,7 @@
         <v>10694</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>73</v>
       </c>
@@ -3943,7 +3960,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -3963,7 +3980,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>67</v>
       </c>
@@ -3983,7 +4000,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>39</v>
       </c>
@@ -4003,7 +4020,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>56</v>
       </c>
@@ -4023,7 +4040,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>42</v>
       </c>
@@ -4043,7 +4060,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>88</v>
       </c>
@@ -4063,7 +4080,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>167</v>
       </c>
@@ -4085,10 +4102,539 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F159" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Major shopping center"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F159">
       <sortCondition descending="1" ref="D1:D159"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8B00D9-612B-6949-9633-3E099BDF59E2}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>14.6504882</v>
+      </c>
+      <c r="D2">
+        <v>121.075221</v>
+      </c>
+      <c r="E2">
+        <v>4.5</v>
+      </c>
+      <c r="F2">
+        <v>11809</v>
+      </c>
+      <c r="G2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>14.735819899999999</v>
+      </c>
+      <c r="D3">
+        <v>121.0603393</v>
+      </c>
+      <c r="E3">
+        <v>4.5</v>
+      </c>
+      <c r="F3">
+        <v>7820</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>14.591050600000001</v>
+      </c>
+      <c r="D4">
+        <v>121.05983790000001</v>
+      </c>
+      <c r="E4">
+        <v>4.3</v>
+      </c>
+      <c r="F4">
+        <v>14551</v>
+      </c>
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>14.7342175</v>
+      </c>
+      <c r="D5">
+        <v>121.0573914</v>
+      </c>
+      <c r="E5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F5">
+        <v>11791</v>
+      </c>
+      <c r="G5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>14.5859462</v>
+      </c>
+      <c r="D6">
+        <v>121.0565345</v>
+      </c>
+      <c r="E6">
+        <v>4.5</v>
+      </c>
+      <c r="F6">
+        <v>46495</v>
+      </c>
+      <c r="G6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>14.550533175253101</v>
+      </c>
+      <c r="D7">
+        <v>121.05608491536201</v>
+      </c>
+      <c r="E7">
+        <v>4.3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>14.5805504</v>
+      </c>
+      <c r="D8">
+        <v>121.0558968</v>
+      </c>
+      <c r="E8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F8">
+        <v>11305</v>
+      </c>
+      <c r="G8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>14.546791799999999</v>
+      </c>
+      <c r="D9">
+        <v>121.05433530000001</v>
+      </c>
+      <c r="E9">
+        <v>4.5</v>
+      </c>
+      <c r="F9">
+        <v>17951</v>
+      </c>
+      <c r="G9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>14.621908680784101</v>
+      </c>
+      <c r="D10">
+        <v>121.052876282087</v>
+      </c>
+      <c r="E10">
+        <v>4.3</v>
+      </c>
+      <c r="F10">
+        <v>15473</v>
+      </c>
+      <c r="G10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>14.417129900000001</v>
+      </c>
+      <c r="D11">
+        <v>121.04123490000001</v>
+      </c>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11">
+        <v>14157</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>14.564647900000001</v>
+      </c>
+      <c r="D12">
+        <v>121.0364352</v>
+      </c>
+      <c r="E12">
+        <v>4.7</v>
+      </c>
+      <c r="F12">
+        <v>5559</v>
+      </c>
+      <c r="G12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>14.653355400000001</v>
+      </c>
+      <c r="D13">
+        <v>121.0333699</v>
+      </c>
+      <c r="E13">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F13">
+        <v>3383</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>14.6568193</v>
+      </c>
+      <c r="D14">
+        <v>121.03046569999999</v>
+      </c>
+      <c r="E14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F14">
+        <v>34610</v>
+      </c>
+      <c r="G14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>14.423077599999999</v>
+      </c>
+      <c r="D15">
+        <v>121.0298681</v>
+      </c>
+      <c r="E15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F15">
+        <v>5259</v>
+      </c>
+      <c r="G15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>14.5510812</v>
+      </c>
+      <c r="D16">
+        <v>121.02550290000001</v>
+      </c>
+      <c r="E16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F16">
+        <v>19392</v>
+      </c>
+      <c r="G16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>14.552924965335199</v>
+      </c>
+      <c r="D17">
+        <v>121.021848291208</v>
+      </c>
+      <c r="E17">
+        <v>4.5</v>
+      </c>
+      <c r="F17">
+        <v>10408</v>
+      </c>
+      <c r="G17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>14.3764837</v>
+      </c>
+      <c r="D18">
+        <v>121.011746</v>
+      </c>
+      <c r="E18">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F18">
+        <v>2651</v>
+      </c>
+      <c r="G18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>14.433261399999999</v>
+      </c>
+      <c r="D19">
+        <v>121.0105665</v>
+      </c>
+      <c r="E19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F19">
+        <v>7792</v>
+      </c>
+      <c r="G19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>14.522424000000001</v>
+      </c>
+      <c r="D20">
+        <v>120.98971539999999</v>
+      </c>
+      <c r="E20">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F20">
+        <v>6403</v>
+      </c>
+      <c r="G20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>14.5758375</v>
+      </c>
+      <c r="D21">
+        <v>120.9839388</v>
+      </c>
+      <c r="E21">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F21">
+        <v>29723</v>
+      </c>
+      <c r="G21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>14.5352172</v>
+      </c>
+      <c r="D22">
+        <v>120.9819432</v>
+      </c>
+      <c r="E22">
+        <v>4.5</v>
+      </c>
+      <c r="F22">
+        <v>56994</v>
+      </c>
+      <c r="G22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>